--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,2008 +446,2004 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>LU1861137484</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AMUNDI INDEX MSCI EUROPE SRI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>LU1861137484</t>
+          <t>FR0013329786</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMUNDI INDEX MSCI EUROPE SRI</t>
+          <t>Yomoni Allocation</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FR0013329786</t>
+          <t>FR0013329778</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yomoni Allocation</t>
+          <t>Yomoni Monde</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FR0013329778</t>
+          <t>FR0014002RL1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yomoni Monde</t>
+          <t>Yomoni Monde PEA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FR0014002RL1</t>
+          <t>LU1650487413</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yomoni Monde PEA</t>
+          <t>Lyxor Euro Government Bond 1-3Y (DR) UCITS ETF - Acc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LU1650487413</t>
+          <t>IE00BD4TYG73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lyxor Euro Government Bond 1-3Y (DR) UCITS ETF - Acc</t>
+          <t>UBS ETF (IE) MSCI USA hedged EUR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IE00BD4TYG73</t>
+          <t>LU1215415214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UBS ETF (IE) MSCI USA hedged EUR UCITS ETF</t>
+          <t>Lyxor iBoxx EUR Liquid High Yield BB UCITS ETF - Acc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LU1215415214</t>
+          <t>LU1861134382</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lyxor iBoxx EUR Liquid High Yield BB UCITS ETF - Acc</t>
+          <t>AMUNDI INDEX MSCI WORLD SRI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LU1861134382</t>
+          <t>LU1659681586</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AMUNDI INDEX MSCI WORLD SRI</t>
+          <t>BNP PARIBAS EASY MSCI USA SRI S-Series 5% Capped</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>LU1659681586</t>
+          <t>IE00B52VJ196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BNP PARIBAS EASY MSCI USA SRI S-Series 5% Capped</t>
+          <t>iShares MSCI Europe SRI UCITS ETF EUR (Acc)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>IE00B52VJ196</t>
+          <t>IE00BYX8XC17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iShares MSCI Europe SRI UCITS ETF EUR (Acc)</t>
+          <t>ISHARES MSCI JAPAN SRI UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX8XC17</t>
+          <t>IE00BYVJRP78</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISHARES MSCI JAPAN SRI UCITS ETF</t>
+          <t>ISHARES MSCI EM SRI UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IE00BYVJRP78</t>
+          <t>LU1859444769</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ISHARES MSCI EM SRI UCITS ETF</t>
+          <t>BNP PARIBAS EASY EUR Corp Bond SRI Fossil Free</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LU1859444769</t>
+          <t>IE00BLDGH553</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BNP PARIBAS EASY EUR Corp Bond SRI Fossil Free</t>
+          <t>iShares € Govt Bond Climate UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IE00BLDGH553</t>
+          <t>LU1563454310</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>iShares € Govt Bond Climate UCITS ETF</t>
+          <t>Lyxor Green Bond ETF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>LU1563454310</t>
+          <t>FR0050000746</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lyxor Green Bond ETF</t>
+          <t>Shelcher Prince Obligations court terme ESG</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FR0050000746</t>
+          <t>LU1291099718</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shelcher Prince Obligations court terme ESG</t>
+          <t>BNP Paribas Easy MSCI Europe ex CW UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LU1291099718</t>
+          <t>IE00BDDRDY39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy MSCI Europe ex CW UCITS ETF</t>
+          <t>JPMorgan USD Emerging Markets Sovereign Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IE00BDDRDY39</t>
+          <t>IE00BF4RFH31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JPMorgan USD Emerging Markets Sovereign Bond UCITS ETF</t>
+          <t>Ishares III PLC - Ishares Msci World Small Cap UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IE00BF4RFH31</t>
+          <t>LU1681038672</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ishares III PLC - Ishares Msci World Small Cap UCITS ETF</t>
+          <t>AMUNDI RUSSELL 2000 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>LU1681038672</t>
+          <t>LU1681042864</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMUNDI RUSSELL 2000 UCITS ETF</t>
+          <t>Amundi ETF MSCI USA UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>LU1681042864</t>
+          <t>FR0013412038</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amundi ETF MSCI USA UCITS ETF</t>
+          <t>Amundi ETF PEA MSCI Europe UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FR0013412038</t>
+          <t>IE00B441G979</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amundi ETF PEA MSCI Europe UCITS ETF</t>
+          <t>iShares MSCI World EUR Hedged UCITS ETF Acc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IE00B441G979</t>
+          <t>IE00BZ163G84</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>iShares MSCI World EUR Hedged UCITS ETF Acc</t>
+          <t>Vanguard EUR Corporate Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IE00BZ163G84</t>
+          <t>IE00BZ163H91</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vanguard EUR Corporate Bond UCITS ETF</t>
+          <t>Vanguard EUR Eurozone Government Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IE00BZ163H91</t>
+          <t>IE00BDBRDM35</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vanguard EUR Eurozone Government Bond UCITS ETF</t>
+          <t>iShares Core Global Aggregate Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IE00BDBRDM35</t>
+          <t>LU1291098827</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>iShares Core Global Aggregate Bond UCITS ETF</t>
+          <t>BNP Paribas Easy MSCI EMU ex CW UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LU1291098827</t>
+          <t>LU0659579733</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy MSCI EMU ex CW UCITS ETF</t>
+          <t>Xtrackers MSCI World Swap UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>LU0659579733</t>
+          <t>FR0011550185</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Xtrackers MSCI World Swap UCITS ETF</t>
+          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF Class C EUR CAPITALISATION</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FR0011550185</t>
+          <t>LU1291097779</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF Class C EUR CAPITALISATION</t>
+          <t>BNP Paribas Easy MSCI Emerging Markets ex CW UCITS ETF Class EUR CAPITALISATION</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>LU1291097779</t>
+          <t>LU1437018168</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy MSCI Emerging Markets ex CW UCITS ETF Class EUR CAPITALISATION</t>
+          <t>Amundi Index Euro Agg Corporate Sri - Ucits Etf D</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>LU1437018168</t>
+          <t>LU1859444843</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amundi Index Euro Agg Corporate Sri - Ucits Etf D</t>
+          <t>BNP Paribas Easy - EUR Corp Bond SRI Fossil Free/Open-end</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>LU1859444843</t>
+          <t>DE000A1RX996</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - EUR Corp Bond SRI Fossil Free/Open-end</t>
+          <t>ETF EUR Daily Hedged Physical Gold ETC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>DE000A1RX996</t>
+          <t>DE000A1N3G19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ETF EUR Daily Hedged Physical Gold ETC</t>
+          <t>ETF EUR Daily Hedged Brent ETC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DE000A1N3G19</t>
+          <t>FR0013412020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ETF EUR Daily Hedged Brent ETC</t>
+          <t>Amundi MSCI Emerging Markets UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>FR0013412020</t>
+          <t>LU1681043599</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amundi MSCI Emerging Markets UCITS ETF</t>
+          <t>Amundi MSCI World UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>LU1681043599</t>
+          <t>LU0389810994</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amundi MSCI World UCITS ETF</t>
+          <t>Amundi Index Solutions MSCI EMU</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>LU0389810994</t>
+          <t>IE00B4WXJJ64</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amundi Index Solutions MSCI EMU</t>
+          <t>iShares Core EUR Govt Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>IE00B4WXJJ64</t>
+          <t>LU1050469870</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>iShares Core EUR Govt Bond UCITS ETF</t>
+          <t>Amundi Index Solutions - Amundi Index JP Morgan EMU Govies</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>LU1050469870</t>
+          <t>LU1050468989</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amundi Index Solutions - Amundi Index JP Morgan EMU Govies</t>
+          <t>Amundi Index Euro Agg Corporate SRI</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>LU1050468989</t>
+          <t>LU1834983477</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amundi Index Euro Agg Corporate SRI</t>
+          <t>Lyxor STOXX Europe 600 Banks UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>LU1834983477</t>
+          <t>LU1834988518</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lyxor STOXX Europe 600 Banks UCITS ETF</t>
+          <t>Lyxor STOXX Europe 600 Technology UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>LU1834988518</t>
+          <t>LU1829219127</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lyxor STOXX Europe 600 Technology UCITS ETF</t>
+          <t>Lyxor Euro Corporate Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>LU1829219127</t>
+          <t>IE00BDR55927</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lyxor Euro Corporate Bond UCITS ETF</t>
+          <t>UBS Irl ETF plc - MSCI ACWI Socially Responsible UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>IE00BDR55927</t>
+          <t>IE00BF553838</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>UBS Irl ETF plc - MSCI ACWI Socially Responsible UCITS ETF</t>
+          <t>iShares JP Morgan ESG USD EM Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>IE00BF553838</t>
+          <t>LU1437018168</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>iShares JP Morgan ESG USD EM Bond UCITS ETF</t>
+          <t>Amundi Index Euro Agg Corporate Sri - Ucits Etf Dr</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>LU1437018168</t>
+          <t>IE00BFNM3P36</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amundi Index Euro Agg Corporate Sri - Ucits Etf Dr</t>
+          <t>iShares MSCI EM IMI ESG Screened UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>IE00BFNM3P36</t>
+          <t>IE00BKX55S42</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>iShares MSCI EM IMI ESG Screened UCITS ETF</t>
+          <t>Vanguard FTSE Developed Europe ex UK UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>IE00BKX55S42</t>
+          <t>LU1650487413</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vanguard FTSE Developed Europe ex UK UCITS ETF</t>
+          <t>Lyxor EuroMTS 1-3Y Investment Grade DR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>LU1650487413</t>
+          <t>LU1792117779</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lyxor EuroMTS 1-3Y Investment Grade DR UCITS ETF</t>
+          <t>Lyxor MSCI World ESG Trend Leaders DR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>LU1792117779</t>
+          <t>LU1859445816</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World ESG Trend Leaders DR UCITS ETF</t>
+          <t>BNP Paribas Easy - MSCI KLD 400 US SRI</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>LU1859445816</t>
+          <t>IE00BFNM3G45</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - MSCI KLD 400 US SRI</t>
+          <t>iShares MSCI USA ESG Screened UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>IE00BFNM3G45</t>
+          <t>LU1753045688</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>iShares MSCI USA ESG Screened UCITS ETF</t>
+          <t>BNP Paribas Easy MSCI Europe SRI/Non-listed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>LU1753045688</t>
+          <t>IE00B1G3DH73</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy MSCI Europe SRI/Non-listed</t>
+          <t>Vanguard Investment Series PLC - US 500 Stock Index Fund</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>IE00B1G3DH73</t>
+          <t>LU1650491282</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vanguard Investment Series PLC - US 500 Stock Index Fund</t>
+          <t>Lyxor EuroMTS Inflation Linked Investment Grade DR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>LU1650491282</t>
+          <t>FR0013346681</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lyxor EuroMTS Inflation Linked Investment Grade DR UCITS ETF</t>
+          <t>Lyxor PEA Obligations d’État Euro UCITS ETF - Acc</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>FR0013346681</t>
+          <t>LU1834988864</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lyxor PEA Obligations d’État Euro UCITS ETF - Acc</t>
+          <t>Lyxor STOXX Europe 600 Utilities UCITS ETF - Acc</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>LU1834988864</t>
+          <t>LU0533034558</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lyxor STOXX Europe 600 Utilities UCITS ETF - Acc</t>
+          <t>Lyxor MSCI World Utilities TR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>LU0533034558</t>
+          <t>LU1681041627</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Utilities TR UCITS ETF</t>
+          <t>Amundi MSCI Europe Minimum Volatility Factor UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>LU1681041627</t>
+          <t>IE00BYYR0C64</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Amundi MSCI Europe Minimum Volatility Factor UCITS ETF</t>
+          <t>Vanguard Global Minimum Volatility Factor UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>IE00BYYR0C64</t>
+          <t>IE00B14X4S71</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vanguard Global Minimum Volatility Factor UCITS ETF</t>
+          <t>iShares Treasury Bond 1-3Y USD UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>IE00B14X4S71</t>
+          <t>IE00BYZTVV78</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>iShares Treasury Bond 1-3Y USD UCITS ETF</t>
+          <t>iShares € Corp Bond SRI 0-3yr UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>IE00BYZTVV78</t>
+          <t>LU1686830065</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>iShares € Corp Bond SRI 0-3yr UCITS ETF</t>
+          <t>Lyxor EuroMTS Covered Bond Aggregate UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>LU1686830065</t>
+          <t>LU1681039563</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lyxor EuroMTS Covered Bond Aggregate UCITS ETF</t>
+          <t>Amundi ETF Europe Equity Multi Smart Allocation Scientific Beta UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>LU1681039563</t>
+          <t>LU1681049109</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Amundi ETF Europe Equity Multi Smart Allocation Scientific Beta UCITS ETF</t>
+          <t>Amundi ETF S&amp;P 500 EUR Hedged Daily UCITS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>LU1681049109</t>
+          <t>LU1050470373</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Amundi ETF S&amp;P 500 EUR Hedged Daily UCITS</t>
+          <t>Amundi Funds Index Bond Euro Govies</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>LU1050470373</t>
+          <t>LU1437019307</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Amundi Funds Index Bond Euro Govies</t>
+          <t>Amundi Index Equity Global Multi Smart Allocation Scientific Beta</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>LU1437019307</t>
+          <t>LU1681045370</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amundi Index Equity Global Multi Smart Allocation Scientific Beta</t>
+          <t>Amundi ETF MSCI Emerging Markets UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>LU1681045370</t>
+          <t>FR0011133644</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Amundi ETF MSCI Emerging Markets UCITS ETF</t>
+          <t>Amundi ETF S&amp;P 500 EUR Hedge</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>FR0011133644</t>
+          <t>FR0007080973</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Amundi ETF S&amp;P 500 EUR Hedge</t>
+          <t>Amundi ETF CAC 40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>FR0007080973</t>
+          <t>LU0389811372</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amundi ETF CAC 40</t>
+          <t>Amundi Index MSCI EMU — AE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>LU0389811372</t>
+          <t>LU1049757120</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amundi Index MSCI EMU — AE</t>
+          <t>Amundi Index MSCI North America</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>LU1049757120</t>
+          <t>LU1681038599</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amundi Index MSCI North America</t>
+          <t>Amundi ETF Nasdaq-100 EUR Hedged</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>LU1681038599</t>
+          <t>LU1681037864</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amundi ETF Nasdaq-100 EUR Hedged</t>
+          <t>Amundi ETF Japan Topix Eur Hed</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>LU1681037864</t>
+          <t>LU1681044720</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Amundi ETF Japan Topix Eur Hed</t>
+          <t>Amundi ETF ETF MSCI Switzerland UC</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LU1681044720</t>
+          <t>LU1291102108</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amundi ETF ETF MSCI Switzerland UC</t>
+          <t>BNP Easy MSCI Japan ex Controversial</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>LU1291102108</t>
+          <t>LU1291109616</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BNP Easy MSCI Japan ex Controversial</t>
+          <t>BNP PARIBAS EASY S&amp;P GSCI ENERGY&amp;METAL CAPPED COMPONENT 35/20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>LU1291109616</t>
+          <t>LU1291101126</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BNP PARIBAS EASY S&amp;P GSCI ENERGY&amp;METAL CAPPED COMPONENT 35/20</t>
+          <t>BNP Paribas Easy — MSCI Europe Small Caps ex Controversial Weapons</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>LU1291101126</t>
+          <t>LU1291105895</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy — MSCI Europe Small Caps ex Controversial Weapons</t>
+          <t>BNP Paribas Easy — MSCI Pacific ex Japan ex Controversial Weapons</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>LU1291105895</t>
+          <t>LU1291092119</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy — MSCI Pacific ex Japan ex Controversial Weapons</t>
+          <t>BNP Paribas Easy — Jpm Embi Global Diversified Composite</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LU1291092119</t>
+          <t>LU1291108998</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy — Jpm Embi Global Diversified Composite</t>
+          <t>BNP Paribas Easy MSCI World ex CW</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LU1291108998</t>
+          <t>DE000A1AQGX1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy MSCI World ex CW</t>
+          <t>db Brent Crude Oil Booster Euro Hedged ETC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>DE000A1AQGX1</t>
+          <t>DE000A1EK0G3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>db Brent Crude Oil Booster Euro Hedged ETC</t>
+          <t>db Physical Gold Euro Hedged ETC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>DE000A1EK0G3</t>
+          <t>LU0321462953</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>db Physical Gold Euro Hedged ETC</t>
+          <t>db x-trackers II Emerging Markets Liquid Eurobond UCITS ETF — 1C EUR Hedged</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>LU0321462953</t>
+          <t>LU0322250985</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>db x-trackers II Emerging Markets Liquid Eurobond UCITS ETF — 1C EUR Hedged</t>
+          <t>db x-trackers CAC 40 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LU0322250985</t>
+          <t>IE00B2QWDY88</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>db x-trackers CAC 40 UCITS ETF</t>
+          <t>iShares MSCI Japan Small Cap UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>IE00B2QWDY88</t>
+          <t>IE00B4L5YX21</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iShares MSCI Japan Small Cap UCITS ETF</t>
+          <t>iShares MSCI Japan (Acc) (IE)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>IE00B4L5YX21</t>
+          <t>IE00B3F81R35</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>iShares MSCI Japan (Acc) (IE)</t>
+          <t>iShares Core EUR Corp Bond UCITS ETF EUR Dist</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>IE00B3F81R35</t>
+          <t>IE00B4L5Y983</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>iShares Core EUR Corp Bond UCITS ETF EUR Dist</t>
+          <t>iShares Core MSCI World UCITS ETF USD Acc</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>IE00B4L5Y983</t>
+          <t>IE00B1FZS913</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>iShares Core MSCI World UCITS ETF USD Acc</t>
+          <t>iShares EUR Govt Bond 15-30yr UCITS ETF EUR Dist</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>IE00B1FZS913</t>
+          <t>IE0032895942</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>iShares EUR Govt Bond 15-30yr UCITS ETF EUR Dist</t>
+          <t>iShares USD Corp Bond UCITS ETF USD Dist</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>IE0032895942</t>
+          <t>IE00B3ZW0K18</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>iShares USD Corp Bond UCITS ETF USD Dist</t>
+          <t>iShares ETF S&amp;P 500 EUR Hedged</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>IE00B3ZW0K18</t>
+          <t>LU1215415214</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>iShares ETF S&amp;P 500 EUR Hedged</t>
+          <t>Lyxor IBOXX EUR LIQUID HIGH YIELD BB UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>LU1215415214</t>
+          <t>FR0011871102</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lyxor IBOXX EUR LIQUID HIGH YIELD BB UCITS ETF</t>
+          <t>Lyxor ETF PEA Japan Topix</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>FR0011871102</t>
+          <t>FR0012154821</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lyxor ETF PEA Japan Topix</t>
+          <t>Lyxor JPX-NIKKEI 400 UCITS ETF DR Daily Hedged C-EUR</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>FR0012154821</t>
+          <t>FR0010833574</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lyxor JPX-NIKKEI 400 UCITS ETF DR Daily Hedged C-EUR</t>
+          <t>LYXOR UCITS ETF FTSE EPRA/NAREIT Global Developed D-EUR</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>FR0010833574</t>
+          <t>LU1407890620</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LYXOR UCITS ETF FTSE EPRA/NAREIT Global Developed D-EUR</t>
+          <t>Lyxor UCITS ETF iBoxx $ Treasuries 10Y DR</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>LU1407890620</t>
+          <t>FR0010345371</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lyxor UCITS ETF iBoxx $ Treasuries 10Y DR</t>
+          <t>Lyxor UCITS ETF Stoxx Europe 600 Banks EUR</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>FR0010345371</t>
+          <t>FR0010345389</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lyxor UCITS ETF Stoxx Europe 600 Banks EUR</t>
+          <t>Lyxor UCITS ETF Stoxx Europe 600 Basic Resources EUR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>FR0010345389</t>
+          <t>LU1435356495</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lyxor UCITS ETF Stoxx Europe 600 Basic Resources EUR</t>
+          <t>Lyxor BofAML $ High Yield Bond EUR Monthly Hedged UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LU1435356495</t>
+          <t>LU1435356149</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lyxor BofAML $ High Yield Bond EUR Monthly Hedged UCITS ETF</t>
+          <t>Lyxor BofAML $ High Yield Bond EUR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>LU1435356149</t>
+          <t>FR0011660927</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lyxor BofAML $ High Yield Bond EUR UCITS ETF</t>
+          <t>Lyxor MSCI World UCITS ETF Monthly Hedged EUR</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>FR0011660927</t>
+          <t>FR0010168773</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World UCITS ETF Monthly Hedged EUR</t>
+          <t>Lyxor UCITS ETF MSCI EMU Small Cap</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>FR0010168773</t>
+          <t>LU1598689153</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lyxor UCITS ETF MSCI EMU Small Cap</t>
+          <t>Lyxor MSCI EMU Small Cap UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>LU1598689153</t>
+          <t>LU0533032859</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lyxor MSCI EMU Small Cap UCITS ETF</t>
+          <t>Lyxor MSCI World Financials TR</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LU0533032859</t>
+          <t>FR0010833558</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Financials TR</t>
+          <t>Lyxor FTSE EPRA/NAREIT Developed Europe UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>FR0010833558</t>
+          <t>FR0011869304</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lyxor FTSE EPRA/NAREIT Developed Europe UCITS ETF</t>
+          <t>Lyxor PEA FTSE EPRA/NAREIT Developed Europe UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>FR0011869304</t>
+          <t>FR0010010827</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lyxor PEA FTSE EPRA/NAREIT Developed Europe UCITS ETF</t>
+          <t>Lyxor FTSE MIB UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>FR0010010827</t>
+          <t>IE00B4613386</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lyxor FTSE MIB UCITS ETF</t>
+          <t>SPDR Barclays Emerging Markets Local Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>IE00B4613386</t>
+          <t>LU1459800113</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SPDR Barclays Emerging Markets Local Bond UCITS ETF</t>
+          <t>UBS ETF Barclays Capital US 10+Y Treasury Bond (hedged to EUR)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LU1459800113</t>
+          <t>IE00B945VV12</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>UBS ETF Barclays Capital US 10+Y Treasury Bond (hedged to EUR)</t>
+          <t>Vanguard FTSE Developed Europe UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>IE00B945VV12</t>
+          <t>IE00B3XXRP09</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Vanguard FTSE Developed Europe UCITS ETF</t>
+          <t>Vanguard S&amp;P 500 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>IE00B3XXRP09</t>
+          <t>FR0011871128</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Vanguard S&amp;P 500 UCITS ETF</t>
+          <t>Lyxor ETF PEA S&amp;P 500</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>FR0011871128</t>
+          <t>FR0011884121</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lyxor ETF PEA S&amp;P 500</t>
+          <t>Lyxor UCITS ETF PEA Japan (Topix) Daily Hedged EUR</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>FR0011884121</t>
+          <t>LU0996179007</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lyxor UCITS ETF PEA Japan (Topix) Daily Hedged EUR</t>
+          <t>Amundi Funds Index Equity USA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LU0996179007</t>
+          <t>IE00BQT3W831</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amundi Funds Index Equity USA</t>
+          <t>iShares JPX-Nikkei 400 EUR Hedged UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IE00BQT3W831</t>
+          <t>LU1291094321</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>iShares JPX-Nikkei 400 EUR Hedged UCITS ETF</t>
+          <t>BNP Easy Mrkit iBoxx Eur Liquid Corporates</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>LU1291094321</t>
+          <t>FR0011475078</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BNP Easy Mrkit iBoxx Eur Liquid Corporates</t>
+          <t>Lyxor Japan Topix EUR Daily Hedged UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>FR0011475078</t>
+          <t>FR0007063177</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lyxor Japan Topix EUR Daily Hedged UCITS ETF</t>
+          <t>Lyxor ETF Nasdaq 100</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>FR0007063177</t>
+          <t>FR0011871110</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lyxor ETF Nasdaq 100</t>
+          <t>Lyxor ETF PEA Nasdaq 100</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>FR0011871110</t>
+          <t>LU0996182563</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lyxor ETF PEA Nasdaq 100</t>
+          <t>Amundi Funds Index Equity World</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>LU0996182563</t>
+          <t>LU0533033402</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Amundi Funds Index Equity World</t>
+          <t>Lyxor MSCI World Indtls TR ETF C EUR</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>LU0533033402</t>
+          <t>LU0533033667</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Indtls TR ETF C EUR</t>
+          <t>Lyxor MSCI World Info Tech TR ETF C EUR</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>LU0533033667</t>
+          <t>LU0533032008</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Info Tech TR ETF C EUR</t>
+          <t>Lyxor MSCI World Cnsmr Discret TR ETF C EUR</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>LU0533032008</t>
+          <t>SUR000002496</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Cnsmr Discret TR ETF C EUR</t>
+          <t>Suravenir rendement</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>SUR000002496</t>
+          <t>LU0533032420</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Suravenir rendement</t>
+          <t>Lyxor MSCI World Energy TR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>LU0533032420</t>
+          <t>IE00BYX5NX33</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Energy TR UCITS ETF</t>
+          <t>Fidelity MSCI World Index Fund</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX5NX33</t>
+          <t>IE00BYYR0D71</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fidelity MSCI World Index Fund</t>
+          <t>Vanguard Global Liquidity Factor UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>IE00BYYR0D71</t>
+          <t>LU1686832194</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Vanguard Global Liquidity Factor UCITS ETF</t>
+          <t>Lyxor Ultra Long Duration Euro Govt FTSE MTS 25+Y DR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>LU1686832194</t>
+          <t>LU1328851503</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lyxor Ultra Long Duration Euro Govt FTSE MTS 25+Y DR UCITS ETF</t>
+          <t>Amundi Index Solutions - Amundi Index FTSE EPRA NAREIT Global</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LU1328851503</t>
+          <t>IE00B42W3S00</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Amundi Index Solutions - Amundi Index FTSE EPRA NAREIT Global</t>
+          <t>Vanguard Investment Series PLC - Global Small-Cap Index Fund</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>IE00B42W3S00</t>
+          <t>FR0013041530</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Vanguard Investment Series PLC - Global Small-Cap Index Fund</t>
+          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>FR0013041530</t>
+          <t>LU0996180351</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF</t>
+          <t>Amundi Index Solutions - Amundi Index MSCI Japan/OEF</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>LU0996180351</t>
+          <t>IE00BYX5ML46</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Amundi Index Solutions - Amundi Index MSCI Japan/OEF</t>
+          <t>Fidelity MSCI Europe Index Fund</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX5ML46</t>
+          <t>LU1291096375</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fidelity MSCI Europe Index Fund</t>
+          <t>BNP Paribas Easy - Markit iBoxx Global Developed Mrkt Lqd 100 HY Capped USD Hdg</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LU1291096375</t>
+          <t>LU1547516291</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - Markit iBoxx Global Developed Mrkt Lqd 100 HY Capped USD Hdg</t>
+          <t>BNP Paribas Easy Energy &amp; Metals Enhanced Roll/ETF</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>LU1547516291</t>
+          <t>LU1291090766</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy Energy &amp; Metals Enhanced Roll/ETF</t>
+          <t>BNP Paribas Easy - Barclays Euro Government Inflation Linked All Maturities</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>LU1291090766</t>
+          <t>IE00BH65QK91</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - Barclays Euro Government Inflation Linked All Maturities</t>
+          <t>Vanguard Investment Series PLC - Global Short Term Bond Index Fund</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>IE00BH65QK91</t>
+          <t>LU1050470373</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Vanguard Investment Series PLC - Global Short Term Bond Index Fund</t>
+          <t>Amundi Index Solutions - Amundi Index JP Morgan EMU Govies</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>LU1050470373</t>
+          <t>FR0011869353</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Amundi Index Solutions - Amundi Index JP Morgan EMU Govies</t>
+          <t>Lyxor PEA MSCI World UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>FR0011869353</t>
+          <t>FR0010959676</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lyxor PEA MSCI World UCITS ETF</t>
+          <t>Amundi Msci Emerging Markets UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>FR0010959676</t>
+          <t>FR0011869312</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Amundi Msci Emerging Markets UCITS ETF</t>
+          <t>Lyxor PEA MSCI AC Asia Pacific Ex Japan UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>FR0011869312</t>
+          <t>IE00BYX5MX67</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lyxor PEA MSCI AC Asia Pacific Ex Japan UCITS ETF</t>
+          <t>Fidelity S&amp;P 500 Index Fund</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX5MX67</t>
+          <t>LU0496786731</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fidelity S&amp;P 500 Index Fund</t>
+          <t>Lyxor MSCI Canada UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>LU0496786731</t>
+          <t>LU0496786574</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lyxor MSCI Canada UCITS ETF</t>
+          <t>Lyxor S&amp;P 500 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LU0496786574</t>
+          <t>LU1291108998</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lyxor S&amp;P 500 UCITS ETF</t>
+          <t>BNP Paribas Easy - MSCI World</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>LU1291108998</t>
+          <t>LU0533033238</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - MSCI World</t>
+          <t>Lyxor MSCI World Health Care T</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>LU0533033238</t>
+          <t>LU1291099478</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Health Care T</t>
+          <t>BNP Paribas Easy - MSCI Europe ex CW</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>LU1291099478</t>
+          <t>IE00BYX5N771</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - MSCI Europe ex CW</t>
+          <t>Fidelity MSCI Japan Index Fund</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX5N771</t>
+          <t>IE00BYXZ2585</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fidelity MSCI Japan Index Fund</t>
+          <t>iShares Core MSCI EMU UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>IE00BYXZ2585</t>
+          <t>IE00BYX5P602</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>iShares Core MSCI EMU UCITS ETF</t>
+          <t>Fidelity MSCI World Index Fund P-ACC-EUR (hedged)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>IE00BYX5P602</t>
+          <t>LU1291092978</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fidelity MSCI World Index Fund P-ACC-EUR (hedged)</t>
+          <t>BNP Paribas Easy Bloomberg Barclays Euro Aggregate Treasury</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>LU1291092978</t>
+          <t>LU1291098660</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy Bloomberg Barclays Euro Aggregate Treasury</t>
+          <t>BNP Paribas Easy - MSCI EMU ex CW</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>LU1291098660</t>
+          <t>FR0010315770</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy - MSCI EMU ex CW</t>
+          <t>Lyxor MSCI World UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>FR0010315770</t>
+          <t>IE00B41RYL63</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World UCITS ETF</t>
+          <t>SPDR Bloomberg Barclays Euro Aggregate Bond UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>IE00B41RYL63</t>
+          <t>IE00BM67HQ30</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SPDR Bloomberg Barclays Euro Aggregate Bond UCITS ETF</t>
+          <t>Xtrackers MSCI World Utilities UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>IE00BM67HQ30</t>
+          <t>IE00BM67HR47</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Xtrackers MSCI World Utilities UCITS ETF</t>
+          <t>Xtrackers MSCI World Communication Services UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>IE00BM67HR47</t>
+          <t>IE00BJ5JNZ06</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Xtrackers MSCI World Communication Services UCITS ETF</t>
+          <t>iShares MSCI World Health Care Sector UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>IE00BJ5JNZ06</t>
+          <t>LU0533034558</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>iShares MSCI World Health Care Sector UCITS ETF</t>
+          <t>Lyxor MSCI World Utilities TR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>LU0533034558</t>
+          <t>LU0533034129</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Utilities TR UCITS ETF</t>
+          <t>Lyxor MSCI World Communication Services TR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LU0533034129</t>
+          <t>LU0533033238</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Communication Services TR UCITS ETF</t>
+          <t>Lyxor MSCI World Health Care TR UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>LU0533033238</t>
+          <t>IE00BK1PV551</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lyxor MSCI World Health Care TR UCITS ETF</t>
+          <t>Xtrackers MSCI World UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>IE00BK1PV551</t>
+          <t>IE00B4L5Y983</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Xtrackers MSCI World UCITS ETF</t>
+          <t>iShares Core MSCI World UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>IE00B4L5Y983</t>
+          <t>FR0011550185</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>iShares Core MSCI World UCITS ETF</t>
+          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>FR0011550185</t>
+          <t>LU0659579733</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BNP Paribas Easy S&amp;P 500 UCITS ETF</t>
+          <t>Xtrackers MSCI World Swap UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>LU0659579733</t>
+          <t>LU1291097779</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Xtrackers MSCI World Swap UCITS ETF</t>
+          <t>BNP Paribas Easy MSCI Emerging Markets ex CW UCITS ETF</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>LU1291097779</t>
+          <t>IE00BM67HT60</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>BNP Paribas Easy MSCI Emerging Markets ex CW UCITS ETF</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>IE00BM67HT60</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
         <is>
           <t>Xtrackers MSCI World Information Technology UCITS ETF</t>
         </is>
